--- a/data/trans_orig/P24F-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24F-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B803A520-AE60-4574-A9EB-1B062854A345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE299161-D11D-4343-8ADA-4DAA216703F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{632D547A-04DE-4C45-A8F3-54A245169B08}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6FBC7CDC-4F62-4F4C-A3A7-CCB8983C15DB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="715">
   <si>
     <t>Población según si le gustaría dejar de fumar en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>4,21%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
   </si>
   <si>
     <t>No lo ha pensado</t>
@@ -106,28 +106,28 @@
     <t>52,1%</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
   </si>
   <si>
     <t>47,19%</t>
   </si>
   <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
   </si>
   <si>
     <t>49,88%</t>
   </si>
   <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
   </si>
   <si>
     <t>Sí le gustaría</t>
@@ -136,28 +136,28 @@
     <t>17,0%</t>
   </si>
   <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
   </si>
   <si>
     <t>24,52%</t>
   </si>
   <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
   </si>
   <si>
     <t>20,4%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
   </si>
   <si>
     <t>No</t>
@@ -166,2014 +166,2017 @@
     <t>26,69%</t>
   </si>
   <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le gustaría dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>Población según si le gustaría dejar de fumar en 2015 (Tasa respuesta: 29,93%)</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
     <t>20,81%</t>
   </si>
   <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
   </si>
   <si>
     <t>11,64%</t>
   </si>
   <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le gustaría dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
   </si>
   <si>
     <t>21,03%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>Población según si le gustaría dejar de fumar en 2015 (Tasa respuesta: 29,93%)</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
   </si>
   <si>
     <t>19,19%</t>
@@ -2591,7 +2594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583CA2FA-629C-4864-9558-78239EE750FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DB4290-24AF-4394-ABEE-4AB971F536C3}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3131,7 +3134,7 @@
         <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>44</v>
@@ -3140,13 +3143,13 @@
         <v>45883</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>119</v>
@@ -3155,13 +3158,13 @@
         <v>126680</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,7 +3220,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3229,13 +3232,13 @@
         <v>15085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -3244,10 +3247,10 @@
         <v>14210</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>93</v>
@@ -4377,10 +4380,10 @@
         <v>252</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M36" s="7">
         <v>877</v>
@@ -4389,13 +4392,13 @@
         <v>899111</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4413,13 @@
         <v>270917</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>259</v>
-      </c>
       <c r="G37" s="7" t="s">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="H37" s="7">
         <v>150</v>
@@ -4425,13 +4428,13 @@
         <v>153950</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M37" s="7">
         <v>409</v>
@@ -4440,13 +4443,13 @@
         <v>424867</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,7 +4505,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -4524,7 +4527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6753F4-645B-4D43-9E48-A6877D2E833F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F64186-CD2F-4C84-972C-FB871DF71F5F}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4541,7 +4544,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4648,13 +4651,13 @@
         <v>5276</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4663,13 +4666,13 @@
         <v>2228</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4678,13 +4681,13 @@
         <v>7504</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,10 +4705,10 @@
         <v>211</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -4714,13 +4717,13 @@
         <v>28081</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M5" s="7">
         <v>64</v>
@@ -4729,13 +4732,13 @@
         <v>66401</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +4753,13 @@
         <v>73053</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H6" s="7">
         <v>69</v>
@@ -4765,13 +4768,13 @@
         <v>71439</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M6" s="7">
         <v>142</v>
@@ -4780,13 +4783,13 @@
         <v>144493</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4804,13 @@
         <v>48496</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -4816,13 +4819,13 @@
         <v>45246</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M7" s="7">
         <v>94</v>
@@ -4831,13 +4834,13 @@
         <v>93743</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,13 +4908,13 @@
         <v>5904</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -4920,13 +4923,13 @@
         <v>998</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>166</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -4935,7 +4938,7 @@
         <v>6902</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>307</v>
@@ -4971,13 +4974,13 @@
         <v>37043</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -4986,7 +4989,7 @@
         <v>88277</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>314</v>
+        <v>83</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>315</v>
@@ -5040,10 +5043,10 @@
         <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5061,13 @@
         <v>88389</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -5073,13 +5076,13 @@
         <v>32296</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M12" s="7">
         <v>118</v>
@@ -5088,13 +5091,13 @@
         <v>120685</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,7 +5153,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5162,13 +5165,13 @@
         <v>4616</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5177,13 +5180,13 @@
         <v>3008</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -5192,13 +5195,13 @@
         <v>7624</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5216,13 @@
         <v>55199</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H15" s="7">
         <v>31</v>
@@ -5228,13 +5231,13 @@
         <v>33845</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M15" s="7">
         <v>85</v>
@@ -5243,13 +5246,13 @@
         <v>89044</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,13 +5267,13 @@
         <v>213215</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H16" s="7">
         <v>140</v>
@@ -5279,13 +5282,13 @@
         <v>148119</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M16" s="7">
         <v>342</v>
@@ -5294,13 +5297,13 @@
         <v>361334</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5318,13 @@
         <v>51377</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H17" s="7">
         <v>57</v>
@@ -5330,13 +5333,13 @@
         <v>60346</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -5345,13 +5348,13 @@
         <v>111723</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,10 +5425,10 @@
         <v>166</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -5434,10 +5437,10 @@
         <v>6610</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>373</v>
@@ -5572,13 +5575,13 @@
         <v>48890</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -5679,10 +5682,10 @@
         <v>402</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>234</v>
+        <v>404</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -5691,13 +5694,13 @@
         <v>1024</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -5706,10 +5709,10 @@
         <v>4092</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>11</v>
@@ -5727,13 +5730,13 @@
         <v>20982</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5742,13 +5745,13 @@
         <v>6298</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -5757,13 +5760,13 @@
         <v>27280</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,13 +5781,13 @@
         <v>104054</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H26" s="7">
         <v>39</v>
@@ -5793,13 +5796,13 @@
         <v>43402</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M26" s="7">
         <v>136</v>
@@ -5808,13 +5811,13 @@
         <v>147456</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,13 +5832,13 @@
         <v>26171</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H27" s="7">
         <v>14</v>
@@ -5844,10 +5847,10 @@
         <v>17105</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>194</v>
@@ -5859,13 +5862,13 @@
         <v>43276</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>347</v>
+        <v>433</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>431</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5936,13 @@
         <v>3015</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5951,10 +5954,10 @@
         <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -5963,13 +5966,13 @@
         <v>3015</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +5987,13 @@
         <v>10251</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -5999,13 +6002,13 @@
         <v>6021</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -6014,13 +6017,13 @@
         <v>16272</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6038,13 @@
         <v>41760</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -6050,13 +6053,13 @@
         <v>8557</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="M31" s="7">
         <v>44</v>
@@ -6065,13 +6068,13 @@
         <v>50318</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6089,13 @@
         <v>20985</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -6101,13 +6104,13 @@
         <v>8454</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M32" s="7">
         <v>26</v>
@@ -6116,13 +6119,13 @@
         <v>29439</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6193,13 @@
         <v>21878</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>126</v>
+        <v>469</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H34" s="7">
         <v>13</v>
@@ -6205,13 +6208,13 @@
         <v>13869</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M34" s="7">
         <v>35</v>
@@ -6220,13 +6223,13 @@
         <v>35747</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>471</v>
+        <v>268</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>165</v>
+        <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6244,13 @@
         <v>212065</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="H35" s="7">
         <v>132</v>
@@ -6256,13 +6259,13 @@
         <v>144034</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M35" s="7">
         <v>332</v>
@@ -6271,13 +6274,13 @@
         <v>356099</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>478</v>
+        <v>260</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>480</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,13 +6295,13 @@
         <v>830533</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H36" s="7">
         <v>564</v>
@@ -6307,13 +6310,13 @@
         <v>612768</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M36" s="7">
         <v>1337</v>
@@ -6322,13 +6325,13 @@
         <v>1443300</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,13 +6346,13 @@
         <v>284308</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>33</v>
+        <v>493</v>
       </c>
       <c r="H37" s="7">
         <v>185</v>
@@ -6358,13 +6361,13 @@
         <v>201502</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>327</v>
+        <v>494</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>101</v>
+        <v>496</v>
       </c>
       <c r="M37" s="7">
         <v>456</v>
@@ -6373,13 +6376,13 @@
         <v>485809</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>294</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,7 +6438,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -6457,7 +6460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BE1F08-286E-427D-91FD-246EB41BF699}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C6742B-664E-4C68-A5FD-C64DD99DB769}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6474,7 +6477,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6581,13 +6584,13 @@
         <v>7217</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>54</v>
+        <v>501</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -6596,13 +6599,13 @@
         <v>5254</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -6611,13 +6614,13 @@
         <v>12472</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,13 +6635,13 @@
         <v>38415</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="H5" s="7">
         <v>35</v>
@@ -6647,13 +6650,13 @@
         <v>34061</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>508</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -6662,13 +6665,13 @@
         <v>72475</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6683,13 +6686,13 @@
         <v>55470</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="H6" s="7">
         <v>48</v>
@@ -6698,13 +6701,13 @@
         <v>47301</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="M6" s="7">
         <v>100</v>
@@ -6713,13 +6716,13 @@
         <v>102771</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6734,13 +6737,13 @@
         <v>38334</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -6749,13 +6752,13 @@
         <v>17826</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -6764,13 +6767,13 @@
         <v>56160</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>528</v>
+        <v>495</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,13 +6841,13 @@
         <v>4775</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -6853,13 +6856,13 @@
         <v>6756</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -6868,13 +6871,13 @@
         <v>11531</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>374</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,13 +6892,13 @@
         <v>62196</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>538</v>
+        <v>311</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -6904,13 +6907,13 @@
         <v>47197</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="M10" s="7">
         <v>106</v>
@@ -6919,13 +6922,13 @@
         <v>109393</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,13 +6943,13 @@
         <v>138081</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>548</v>
+        <v>358</v>
       </c>
       <c r="H11" s="7">
         <v>118</v>
@@ -6955,13 +6958,13 @@
         <v>114274</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="M11" s="7">
         <v>251</v>
@@ -6970,13 +6973,13 @@
         <v>252355</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,13 +6994,13 @@
         <v>53876</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>557</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="H12" s="7">
         <v>44</v>
@@ -7006,13 +7009,13 @@
         <v>42890</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="M12" s="7">
         <v>95</v>
@@ -7021,13 +7024,13 @@
         <v>96766</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>561</v>
+        <v>281</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7083,7 +7086,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -7095,13 +7098,13 @@
         <v>9048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>565</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -7110,13 +7113,13 @@
         <v>4539</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -7125,13 +7128,13 @@
         <v>13587</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>568</v>
+        <v>132</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,13 +7149,13 @@
         <v>41562</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>130</v>
+        <v>574</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>572</v>
+        <v>48</v>
       </c>
       <c r="H15" s="7">
         <v>36</v>
@@ -7161,13 +7164,13 @@
         <v>35236</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="M15" s="7">
         <v>75</v>
@@ -7176,13 +7179,13 @@
         <v>76798</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,13 +7200,13 @@
         <v>146827</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H16" s="7">
         <v>133</v>
@@ -7212,13 +7215,13 @@
         <v>129605</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M16" s="7">
         <v>271</v>
@@ -7227,13 +7230,13 @@
         <v>276432</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,13 +7251,13 @@
         <v>66554</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>191</v>
+        <v>590</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -7263,13 +7266,13 @@
         <v>50183</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="M17" s="7">
         <v>114</v>
@@ -7278,13 +7281,13 @@
         <v>116737</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,13 +7355,13 @@
         <v>7846</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -7367,13 +7370,13 @@
         <v>2036</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>166</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>599</v>
+        <v>336</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -7382,13 +7385,13 @@
         <v>9882</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>600</v>
+        <v>12</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>274</v>
+        <v>602</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,13 +7406,13 @@
         <v>53786</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>603</v>
+        <v>196</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -7418,13 +7421,13 @@
         <v>38842</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>333</v>
+        <v>606</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="M20" s="7">
         <v>80</v>
@@ -7433,13 +7436,13 @@
         <v>92628</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>609</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7454,13 +7457,13 @@
         <v>161771</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H21" s="7">
         <v>139</v>
@@ -7469,13 +7472,13 @@
         <v>149721</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M21" s="7">
         <v>284</v>
@@ -7484,13 +7487,13 @@
         <v>311492</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7508,10 +7511,10 @@
         <v>189</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -7520,13 +7523,13 @@
         <v>38065</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M22" s="7">
         <v>78</v>
@@ -7535,13 +7538,13 @@
         <v>88364</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>627</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7609,13 +7612,13 @@
         <v>1041</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -7624,13 +7627,13 @@
         <v>4315</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>628</v>
+        <v>372</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>629</v>
+        <v>57</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -7642,7 +7645,7 @@
         <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>630</v>
@@ -7714,7 +7717,7 @@
         <v>640</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>641</v>
@@ -7741,13 +7744,13 @@
         <v>154875</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>646</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7762,13 +7765,13 @@
         <v>22667</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>649</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>650</v>
       </c>
       <c r="H27" s="7">
         <v>22</v>
@@ -7780,10 +7783,10 @@
         <v>639</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>651</v>
+        <v>367</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="M27" s="7">
         <v>42</v>
@@ -7792,13 +7795,13 @@
         <v>49617</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>653</v>
+        <v>348</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7866,13 +7869,13 @@
         <v>2990</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7884,10 +7887,10 @@
         <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>239</v>
+        <v>373</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -7896,13 +7899,13 @@
         <v>2990</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7917,13 +7920,13 @@
         <v>9253</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -7932,13 +7935,13 @@
         <v>4193</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -7947,13 +7950,13 @@
         <v>13446</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>397</v>
+        <v>665</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7968,13 +7971,13 @@
         <v>49660</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>672</v>
       </c>
       <c r="H31" s="7">
         <v>21</v>
@@ -7983,13 +7986,13 @@
         <v>24137</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>673</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>675</v>
       </c>
       <c r="M31" s="7">
         <v>71</v>
@@ -7998,13 +8001,13 @@
         <v>73797</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>676</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8019,13 +8022,13 @@
         <v>19355</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>396</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -8034,13 +8037,13 @@
         <v>9711</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>681</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>682</v>
       </c>
       <c r="M32" s="7">
         <v>29</v>
@@ -8049,13 +8052,13 @@
         <v>29067</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="P32" s="7" t="s">
-        <v>684</v>
-      </c>
       <c r="Q32" s="7" t="s">
-        <v>685</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8123,13 +8126,13 @@
         <v>32917</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>687</v>
+        <v>305</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H34" s="7">
         <v>23</v>
@@ -8138,13 +8141,13 @@
         <v>22900</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="M34" s="7">
         <v>55</v>
@@ -8156,10 +8159,10 @@
         <v>52</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>304</v>
+        <v>689</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8174,13 +8177,13 @@
         <v>229354</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H35" s="7">
         <v>178</v>
@@ -8189,13 +8192,13 @@
         <v>183082</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>160</v>
+        <v>692</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>694</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>695</v>
       </c>
       <c r="M35" s="7">
         <v>387</v>
@@ -8204,10 +8207,10 @@
         <v>412436</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>696</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>697</v>
@@ -8291,7 +8294,7 @@
         <v>185625</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>710</v>
@@ -8306,13 +8309,13 @@
         <v>436711</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>409</v>
+        <v>712</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8368,7 +8371,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24F-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24F-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE299161-D11D-4343-8ADA-4DAA216703F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0A24016-6E64-4593-BE3E-4F490227A09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6FBC7CDC-4F62-4F4C-A3A7-CCB8983C15DB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DDFA29CC-7A6A-4F4A-B007-442D637191B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="714">
   <si>
     <t>Población según si le gustaría dejar de fumar en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -76,2113 +76,2110 @@
     <t>4,21%</t>
   </si>
   <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>No lo ha pensado</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>Sí le gustaría</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le gustaría dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>Población según si le gustaría dejar de fumar en 2016 (Tasa respuesta: 29,93%)</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>No lo ha pensado</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>Sí le gustaría</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
   </si>
   <si>
     <t>22,74%</t>
   </si>
   <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le gustaría dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>Población según si le gustaría dejar de fumar en 2015 (Tasa respuesta: 29,93%)</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
     <t>19,86%</t>
   </si>
   <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
+    <t>21,72%</t>
   </si>
   <si>
     <t>55,86%</t>
   </si>
   <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
   </si>
   <si>
     <t>57,14%</t>
   </si>
   <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
   </si>
   <si>
     <t>56,42%</t>
   </si>
   <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
   </si>
   <si>
     <t>21,59%</t>
   </si>
   <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
   </si>
 </sst>
 </file>
@@ -2594,7 +2591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DB4290-24AF-4394-ABEE-4AB971F536C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A85142A-9BC1-44FE-A363-AF13ECB4D8B4}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3250,10 +3247,10 @@
         <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="M14" s="7">
         <v>28</v>
@@ -3489,13 +3486,13 @@
         <v>7409</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -3504,13 +3501,13 @@
         <v>10038</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -3519,13 +3516,13 @@
         <v>17447</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,13 +3537,13 @@
         <v>64243</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -3555,13 +3552,13 @@
         <v>46539</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>106</v>
@@ -3570,13 +3567,13 @@
         <v>110782</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3588,13 @@
         <v>120537</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>67</v>
@@ -3606,13 +3603,13 @@
         <v>69840</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>178</v>
@@ -3621,13 +3618,13 @@
         <v>190376</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3639,13 @@
         <v>42546</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -3657,13 +3654,13 @@
         <v>18549</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -3672,13 +3669,13 @@
         <v>61095</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,7 +3731,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3746,13 +3743,13 @@
         <v>9615</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3761,13 +3758,13 @@
         <v>976</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -3776,13 +3773,13 @@
         <v>10590</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,13 +3794,13 @@
         <v>28107</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -3812,13 +3809,13 @@
         <v>16366</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -3827,13 +3824,13 @@
         <v>44473</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,13 +3845,13 @@
         <v>67322</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -3863,13 +3860,13 @@
         <v>17781</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>85</v>
@@ -3878,13 +3875,13 @@
         <v>85102</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,13 +3896,13 @@
         <v>23647</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -3914,13 +3911,13 @@
         <v>11766</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>36</v>
@@ -3929,13 +3926,13 @@
         <v>35412</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,7 +3988,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4003,13 +4000,13 @@
         <v>4639</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -4018,13 +4015,13 @@
         <v>891</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -4033,13 +4030,13 @@
         <v>5529</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4051,13 @@
         <v>19155</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -4069,13 +4066,13 @@
         <v>1036</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -4084,13 +4081,13 @@
         <v>20191</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4102,13 @@
         <v>35347</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -4120,13 +4117,13 @@
         <v>6849</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>44</v>
@@ -4135,13 +4132,13 @@
         <v>42196</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,13 +4153,13 @@
         <v>16686</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -4171,13 +4168,13 @@
         <v>2445</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -4186,13 +4183,13 @@
         <v>19130</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4257,13 @@
         <v>56056</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>47</v>
@@ -4275,13 +4272,13 @@
         <v>47194</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>101</v>
@@ -4290,13 +4287,13 @@
         <v>103250</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,13 +4308,13 @@
         <v>516578</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>295</v>
@@ -4326,13 +4323,13 @@
         <v>302954</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M35" s="7">
         <v>805</v>
@@ -4341,13 +4338,13 @@
         <v>819533</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,13 +4359,13 @@
         <v>539879</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H36" s="7">
         <v>353</v>
@@ -4377,10 +4374,10 @@
         <v>359231</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>253</v>
@@ -4419,7 +4416,7 @@
         <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>135</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>150</v>
@@ -4428,13 +4425,13 @@
         <v>153950</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M37" s="7">
         <v>409</v>
@@ -4443,13 +4440,13 @@
         <v>424867</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,7 +4502,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -4527,7 +4524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F64186-CD2F-4C84-972C-FB871DF71F5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8296A419-D5A4-49F4-9847-98DD9241AEB1}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4544,7 +4541,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4651,13 +4648,13 @@
         <v>5276</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4666,13 +4663,13 @@
         <v>2228</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4681,7 +4678,7 @@
         <v>7504</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>272</v>
+        <v>90</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>273</v>
@@ -4702,7 +4699,7 @@
         <v>38320</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>275</v>
@@ -4735,10 +4732,10 @@
         <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,13 +4750,13 @@
         <v>73053</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H6" s="7">
         <v>69</v>
@@ -4768,13 +4765,13 @@
         <v>71439</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M6" s="7">
         <v>142</v>
@@ -4783,13 +4780,13 @@
         <v>144493</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4801,13 @@
         <v>48496</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -4819,13 +4816,13 @@
         <v>45246</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M7" s="7">
         <v>94</v>
@@ -4834,13 +4831,13 @@
         <v>93743</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,13 +4905,13 @@
         <v>5904</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -4923,13 +4920,13 @@
         <v>998</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -4938,13 +4935,13 @@
         <v>6902</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +4956,13 @@
         <v>51235</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>310</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -4974,13 +4971,13 @@
         <v>37043</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -4989,13 +4986,13 @@
         <v>88277</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>83</v>
+        <v>313</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +5007,13 @@
         <v>203637</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H11" s="7">
         <v>166</v>
@@ -5025,13 +5022,13 @@
         <v>178197</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M11" s="7">
         <v>360</v>
@@ -5040,10 +5037,10 @@
         <v>381833</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>324</v>
@@ -5171,7 +5168,7 @@
         <v>335</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>336</v>
+        <v>56</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5180,13 +5177,13 @@
         <v>3008</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -5195,13 +5192,13 @@
         <v>7624</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,13 +5213,13 @@
         <v>55199</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H15" s="7">
         <v>31</v>
@@ -5231,13 +5228,13 @@
         <v>33845</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M15" s="7">
         <v>85</v>
@@ -5246,10 +5243,10 @@
         <v>89044</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>350</v>
@@ -5422,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>369</v>
@@ -5473,13 +5470,13 @@
         <v>36079</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>201</v>
+        <v>377</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -5488,13 +5485,13 @@
         <v>32746</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M20" s="7">
         <v>61</v>
@@ -5503,13 +5500,13 @@
         <v>68825</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,13 +5521,13 @@
         <v>194813</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H21" s="7">
         <v>142</v>
@@ -5539,13 +5536,13 @@
         <v>163054</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M21" s="7">
         <v>313</v>
@@ -5554,13 +5551,13 @@
         <v>357867</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,13 +5572,13 @@
         <v>48890</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>258</v>
+        <v>395</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -5590,13 +5587,13 @@
         <v>38054</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M22" s="7">
         <v>74</v>
@@ -5605,13 +5602,13 @@
         <v>86944</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,7 +5664,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5679,13 +5676,13 @@
         <v>3068</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -5694,13 +5691,13 @@
         <v>1024</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -5709,13 +5706,13 @@
         <v>4092</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>11</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,13 +5727,13 @@
         <v>20982</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5745,13 +5742,13 @@
         <v>6298</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -5760,13 +5757,13 @@
         <v>27280</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,13 +5778,13 @@
         <v>104054</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H26" s="7">
         <v>39</v>
@@ -5796,13 +5793,13 @@
         <v>43402</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M26" s="7">
         <v>136</v>
@@ -5811,13 +5808,13 @@
         <v>147456</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5829,13 @@
         <v>26171</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H27" s="7">
         <v>14</v>
@@ -5847,13 +5844,13 @@
         <v>17105</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>194</v>
+        <v>434</v>
       </c>
       <c r="M27" s="7">
         <v>39</v>
@@ -5862,13 +5859,13 @@
         <v>43276</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>206</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,7 +5921,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -5936,13 +5933,13 @@
         <v>3015</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5951,13 +5948,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>369</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -5966,13 +5963,13 @@
         <v>3015</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,13 +5984,13 @@
         <v>10251</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -6002,13 +5999,13 @@
         <v>6021</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -6017,13 +6014,13 @@
         <v>16272</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +6035,13 @@
         <v>41760</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -6053,13 +6050,13 @@
         <v>8557</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M31" s="7">
         <v>44</v>
@@ -6068,13 +6065,13 @@
         <v>50318</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6086,13 @@
         <v>20985</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -6104,13 +6101,13 @@
         <v>8454</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="M32" s="7">
         <v>26</v>
@@ -6119,13 +6116,13 @@
         <v>29439</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6193,13 +6190,13 @@
         <v>21878</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>470</v>
+        <v>90</v>
       </c>
       <c r="H34" s="7">
         <v>13</v>
@@ -6208,13 +6205,13 @@
         <v>13869</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>471</v>
+        <v>53</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M34" s="7">
         <v>35</v>
@@ -6223,13 +6220,13 @@
         <v>35747</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>268</v>
+        <v>476</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6241,13 @@
         <v>212065</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H35" s="7">
         <v>132</v>
@@ -6259,13 +6256,13 @@
         <v>144034</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>480</v>
+        <v>275</v>
       </c>
       <c r="M35" s="7">
         <v>332</v>
@@ -6274,13 +6271,13 @@
         <v>356099</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>260</v>
+        <v>483</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>481</v>
+        <v>223</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>281</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6292,13 @@
         <v>830533</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H36" s="7">
         <v>564</v>
@@ -6310,13 +6307,13 @@
         <v>612768</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M36" s="7">
         <v>1337</v>
@@ -6325,13 +6322,13 @@
         <v>1443300</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,13 +6343,13 @@
         <v>284308</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H37" s="7">
         <v>185</v>
@@ -6361,13 +6358,13 @@
         <v>201502</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M37" s="7">
         <v>456</v>
@@ -6376,13 +6373,13 @@
         <v>485809</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,7 +6435,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -6460,7 +6457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C6742B-664E-4C68-A5FD-C64DD99DB769}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0DB68E-B268-4D7C-917C-C0D672D43211}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6477,7 +6474,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6584,13 +6581,13 @@
         <v>7217</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -6599,13 +6596,13 @@
         <v>5254</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -6614,13 +6611,13 @@
         <v>12472</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>507</v>
+        <v>272</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6632,13 @@
         <v>38415</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H5" s="7">
         <v>35</v>
@@ -6650,13 +6647,13 @@
         <v>34061</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>299</v>
+        <v>515</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -6665,13 +6662,13 @@
         <v>72475</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6686,13 +6683,13 @@
         <v>55470</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H6" s="7">
         <v>48</v>
@@ -6701,13 +6698,13 @@
         <v>47301</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M6" s="7">
         <v>100</v>
@@ -6716,13 +6713,13 @@
         <v>102771</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6737,13 +6734,13 @@
         <v>38334</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -6752,13 +6749,13 @@
         <v>17826</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -6767,13 +6764,13 @@
         <v>56160</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>495</v>
+        <v>535</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6841,13 +6838,13 @@
         <v>4775</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -6856,13 +6853,13 @@
         <v>6756</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -6871,13 +6868,13 @@
         <v>11531</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>374</v>
+        <v>439</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6892,13 +6889,13 @@
         <v>62196</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>311</v>
+        <v>545</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>542</v>
+        <v>65</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -6907,13 +6904,13 @@
         <v>47197</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="M10" s="7">
         <v>106</v>
@@ -6922,13 +6919,13 @@
         <v>109393</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>546</v>
+        <v>495</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,13 +6940,13 @@
         <v>138081</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>358</v>
+        <v>553</v>
       </c>
       <c r="H11" s="7">
         <v>118</v>
@@ -6958,13 +6955,13 @@
         <v>114274</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="M11" s="7">
         <v>251</v>
@@ -6973,13 +6970,13 @@
         <v>252355</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,13 +6991,13 @@
         <v>53876</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>558</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H12" s="7">
         <v>44</v>
@@ -7009,13 +7006,13 @@
         <v>42890</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M12" s="7">
         <v>95</v>
@@ -7024,13 +7021,13 @@
         <v>96766</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>281</v>
+        <v>566</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>564</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7098,13 +7095,13 @@
         <v>9048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>566</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -7113,13 +7110,13 @@
         <v>4539</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>570</v>
+        <v>130</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -7128,13 +7125,13 @@
         <v>13587</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>132</v>
+        <v>571</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>572</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,10 +7149,10 @@
         <v>573</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>574</v>
+        <v>116</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>48</v>
+        <v>560</v>
       </c>
       <c r="H15" s="7">
         <v>36</v>
@@ -7164,13 +7161,13 @@
         <v>35236</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="M15" s="7">
         <v>75</v>
@@ -7179,13 +7176,13 @@
         <v>76798</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,13 +7197,13 @@
         <v>146827</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>583</v>
       </c>
       <c r="H16" s="7">
         <v>133</v>
@@ -7215,13 +7212,13 @@
         <v>129605</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>586</v>
       </c>
       <c r="M16" s="7">
         <v>271</v>
@@ -7230,13 +7227,13 @@
         <v>276432</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7251,13 +7248,13 @@
         <v>66554</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -7373,10 +7370,10 @@
         <v>601</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>336</v>
+        <v>602</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -7385,13 +7382,13 @@
         <v>9882</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>12</v>
+        <v>603</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7406,13 +7403,13 @@
         <v>53786</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>196</v>
+        <v>607</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -7421,13 +7418,13 @@
         <v>38842</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="M20" s="7">
         <v>80</v>
@@ -7436,13 +7433,13 @@
         <v>92628</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>609</v>
+        <v>156</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>398</v>
+        <v>613</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7457,13 +7454,13 @@
         <v>161771</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="H21" s="7">
         <v>139</v>
@@ -7472,13 +7469,13 @@
         <v>149721</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>615</v>
-      </c>
       <c r="L21" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="M21" s="7">
         <v>284</v>
@@ -7487,13 +7484,13 @@
         <v>311492</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7508,13 +7505,13 @@
         <v>50300</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>620</v>
+        <v>200</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -7523,13 +7520,13 @@
         <v>38065</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M22" s="7">
         <v>78</v>
@@ -7538,13 +7535,13 @@
         <v>88364</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7600,7 +7597,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7612,13 +7609,13 @@
         <v>1041</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>534</v>
+        <v>629</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -7627,13 +7624,13 @@
         <v>4315</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>372</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>57</v>
+        <v>632</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -7642,13 +7639,13 @@
         <v>5355</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>569</v>
+        <v>633</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7663,13 +7660,13 @@
         <v>24142</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -7678,13 +7675,13 @@
         <v>23554</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -7693,13 +7690,13 @@
         <v>47696</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7714,13 +7711,13 @@
         <v>97821</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>611</v>
+        <v>645</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="H26" s="7">
         <v>49</v>
@@ -7729,13 +7726,13 @@
         <v>57055</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>643</v>
+        <v>289</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="M26" s="7">
         <v>135</v>
@@ -7744,13 +7741,13 @@
         <v>154875</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>352</v>
+        <v>649</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7765,13 +7762,13 @@
         <v>22667</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>648</v>
+        <v>505</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="H27" s="7">
         <v>22</v>
@@ -7780,13 +7777,13 @@
         <v>26950</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>367</v>
+        <v>655</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="M27" s="7">
         <v>42</v>
@@ -7795,13 +7792,13 @@
         <v>49617</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>348</v>
+        <v>657</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7857,7 +7854,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -7869,13 +7866,13 @@
         <v>2990</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>654</v>
+        <v>599</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7884,13 +7881,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>369</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>373</v>
+        <v>662</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -7899,13 +7896,13 @@
         <v>2990</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7920,13 +7917,13 @@
         <v>9253</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -7935,13 +7932,13 @@
         <v>4193</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -7950,13 +7947,13 @@
         <v>13446</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>666</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>667</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7971,13 +7968,13 @@
         <v>49660</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>668</v>
+        <v>588</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="H31" s="7">
         <v>21</v>
@@ -7986,13 +7983,13 @@
         <v>24137</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="M31" s="7">
         <v>71</v>
@@ -8001,13 +7998,13 @@
         <v>73797</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8022,13 +8019,13 @@
         <v>19355</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>396</v>
+        <v>682</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -8037,13 +8034,13 @@
         <v>9711</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="M32" s="7">
         <v>29</v>
@@ -8052,13 +8049,13 @@
         <v>29067</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>683</v>
+        <v>566</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>136</v>
+        <v>688</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8126,13 +8123,13 @@
         <v>32917</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>684</v>
+        <v>509</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>305</v>
+        <v>403</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>685</v>
+        <v>631</v>
       </c>
       <c r="H34" s="7">
         <v>23</v>
@@ -8141,13 +8138,13 @@
         <v>22900</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>686</v>
+        <v>471</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M34" s="7">
         <v>55</v>
@@ -8159,10 +8156,10 @@
         <v>52</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8177,13 +8174,13 @@
         <v>229354</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>593</v>
+        <v>395</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H35" s="7">
         <v>178</v>
@@ -8192,13 +8189,13 @@
         <v>183082</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="M35" s="7">
         <v>387</v>
@@ -8207,13 +8204,13 @@
         <v>412436</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>696</v>
+        <v>151</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8228,13 +8225,13 @@
         <v>649628</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H36" s="7">
         <v>508</v>
@@ -8243,13 +8240,13 @@
         <v>522094</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="M36" s="7">
         <v>1112</v>
@@ -8258,13 +8255,13 @@
         <v>1171722</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8279,13 +8276,13 @@
         <v>251086</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H37" s="7">
         <v>176</v>
@@ -8294,13 +8291,13 @@
         <v>185625</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="M37" s="7">
         <v>412</v>
@@ -8309,13 +8306,13 @@
         <v>436711</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>712</v>
+        <v>628</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>713</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8371,7 +8368,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24F-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24F-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0A24016-6E64-4593-BE3E-4F490227A09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{008790E6-FDD2-41DE-84FB-35FE754EC6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DDFA29CC-7A6A-4F4A-B007-442D637191B9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{89DD8D73-8FEA-465E-9C43-06167DAD4741}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -76,2110 +76,2110 @@
     <t>4,21%</t>
   </si>
   <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>No lo ha pensado</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>Sí le gustaría</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le gustaría dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
     <t>2,26%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>No lo ha pensado</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>Sí le gustaría</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>Población según si le gustaría dejar de fumar en 2016 (Tasa respuesta: 29,93%)</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
   </si>
   <si>
     <t>16,49%</t>
   </si>
   <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
     <t>24,55%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le gustaría dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>Población según si le gustaría dejar de fumar en 2016 (Tasa respuesta: 29,93%)</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
+    <t>2,1%</t>
   </si>
   <si>
     <t>19,72%</t>
   </si>
   <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
   </si>
   <si>
     <t>19,86%</t>
   </si>
   <si>
-    <t>21,72%</t>
+    <t>21,61%</t>
   </si>
   <si>
     <t>55,86%</t>
   </si>
   <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
   </si>
   <si>
     <t>57,14%</t>
   </si>
   <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
   </si>
   <si>
     <t>56,42%</t>
   </si>
   <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
   </si>
   <si>
     <t>21,59%</t>
   </si>
   <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
 </sst>
 </file>
@@ -2591,7 +2591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A85142A-9BC1-44FE-A363-AF13ECB4D8B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6FC2C3-3574-4794-9027-27819B4D2962}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3131,7 +3131,7 @@
         <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="H12" s="7">
         <v>44</v>
@@ -3140,13 +3140,13 @@
         <v>45883</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>119</v>
@@ -3155,13 +3155,13 @@
         <v>126680</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,7 +3217,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3229,13 +3229,13 @@
         <v>15085</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -3244,13 +3244,13 @@
         <v>14210</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M14" s="7">
         <v>28</v>
@@ -3486,13 +3486,13 @@
         <v>7409</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -3501,13 +3501,13 @@
         <v>10038</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -3516,13 +3516,13 @@
         <v>17447</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3537,13 @@
         <v>64243</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -3552,13 +3552,13 @@
         <v>46539</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>106</v>
@@ -3567,13 +3567,13 @@
         <v>110782</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,13 +3588,13 @@
         <v>120537</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>67</v>
@@ -3603,13 +3603,13 @@
         <v>69840</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>178</v>
@@ -3618,13 +3618,13 @@
         <v>190376</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3639,13 @@
         <v>42546</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -3654,13 +3654,13 @@
         <v>18549</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -3669,13 +3669,13 @@
         <v>61095</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,7 +3731,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3743,13 +3743,13 @@
         <v>9615</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3758,13 +3758,13 @@
         <v>976</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -3773,13 +3773,13 @@
         <v>10590</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3794,13 @@
         <v>28107</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -3809,13 +3809,13 @@
         <v>16366</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -3824,13 +3824,13 @@
         <v>44473</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +3845,13 @@
         <v>67322</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -3860,13 +3860,13 @@
         <v>17781</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>85</v>
@@ -3875,13 +3875,13 @@
         <v>85102</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,13 +3896,13 @@
         <v>23647</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -3911,13 +3911,13 @@
         <v>11766</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>36</v>
@@ -3926,13 +3926,13 @@
         <v>35412</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,7 +3988,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4000,13 +4000,13 @@
         <v>4639</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -4015,13 +4015,13 @@
         <v>891</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -4030,13 +4030,13 @@
         <v>5529</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4051,13 @@
         <v>19155</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -4066,13 +4066,13 @@
         <v>1036</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -4081,13 +4081,13 @@
         <v>20191</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4102,13 @@
         <v>35347</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -4117,13 +4117,13 @@
         <v>6849</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>44</v>
@@ -4132,13 +4132,13 @@
         <v>42196</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4153,13 @@
         <v>16686</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -4168,13 +4168,13 @@
         <v>2445</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -4183,13 +4183,13 @@
         <v>19130</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,13 +4257,13 @@
         <v>56056</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>47</v>
@@ -4272,13 +4272,13 @@
         <v>47194</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>101</v>
@@ -4287,13 +4287,13 @@
         <v>103250</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4308,13 @@
         <v>516578</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>295</v>
@@ -4323,13 +4323,13 @@
         <v>302954</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M35" s="7">
         <v>805</v>
@@ -4338,13 +4338,13 @@
         <v>819533</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4359,13 @@
         <v>539879</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H36" s="7">
         <v>353</v>
@@ -4374,13 +4374,13 @@
         <v>359231</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M36" s="7">
         <v>877</v>
@@ -4389,13 +4389,13 @@
         <v>899111</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4410,13 @@
         <v>270917</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H37" s="7">
         <v>150</v>
@@ -4425,13 +4425,13 @@
         <v>153950</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M37" s="7">
         <v>409</v>
@@ -4440,13 +4440,13 @@
         <v>424867</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,7 +4502,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4524,7 +4524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8296A419-D5A4-49F4-9847-98DD9241AEB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7144659-3706-4CD7-B82F-77760978F7D9}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4541,7 +4541,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4648,7 +4648,7 @@
         <v>5276</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>268</v>
+        <v>92</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>269</v>
@@ -4666,7 +4666,7 @@
         <v>271</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>272</v>
@@ -4678,13 +4678,13 @@
         <v>7504</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>90</v>
+        <v>273</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,13 +4699,13 @@
         <v>38320</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -4714,13 +4714,13 @@
         <v>28081</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M5" s="7">
         <v>64</v>
@@ -4729,13 +4729,13 @@
         <v>66401</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +4750,13 @@
         <v>73053</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H6" s="7">
         <v>69</v>
@@ -4765,13 +4765,13 @@
         <v>71439</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M6" s="7">
         <v>142</v>
@@ -4780,13 +4780,13 @@
         <v>144493</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4801,13 @@
         <v>48496</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -4816,13 +4816,13 @@
         <v>45246</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M7" s="7">
         <v>94</v>
@@ -4831,13 +4831,13 @@
         <v>93743</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,13 +4905,13 @@
         <v>5904</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -4920,13 +4920,13 @@
         <v>998</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -4935,13 +4935,13 @@
         <v>6902</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,13 +4956,13 @@
         <v>51235</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>311</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -4971,13 +4971,13 @@
         <v>37043</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -4986,13 +4986,13 @@
         <v>88277</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +5007,13 @@
         <v>203637</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H11" s="7">
         <v>166</v>
@@ -5022,13 +5022,13 @@
         <v>178197</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M11" s="7">
         <v>360</v>
@@ -5037,13 +5037,13 @@
         <v>381833</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5058,13 @@
         <v>88389</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -5073,13 +5073,13 @@
         <v>32296</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M12" s="7">
         <v>118</v>
@@ -5088,13 +5088,13 @@
         <v>120685</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,7 +5150,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5162,13 +5162,13 @@
         <v>4616</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>56</v>
+        <v>337</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5177,13 +5177,13 @@
         <v>3008</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -5192,13 +5192,13 @@
         <v>7624</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5213,13 @@
         <v>55199</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H15" s="7">
         <v>31</v>
@@ -5228,13 +5228,13 @@
         <v>33845</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M15" s="7">
         <v>85</v>
@@ -5243,13 +5243,13 @@
         <v>89044</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,13 +5264,13 @@
         <v>213215</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H16" s="7">
         <v>140</v>
@@ -5279,13 +5279,13 @@
         <v>148119</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M16" s="7">
         <v>342</v>
@@ -5294,13 +5294,13 @@
         <v>361334</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5315,13 @@
         <v>51377</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>361</v>
+        <v>122</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
         <v>57</v>
@@ -5330,13 +5330,13 @@
         <v>60346</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -5345,13 +5345,13 @@
         <v>111723</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5419,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -5434,10 +5434,10 @@
         <v>6610</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>372</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>373</v>
@@ -5470,13 +5470,13 @@
         <v>36079</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -5485,13 +5485,13 @@
         <v>32746</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M20" s="7">
         <v>61</v>
@@ -5500,13 +5500,13 @@
         <v>68825</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,13 +5521,13 @@
         <v>194813</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H21" s="7">
         <v>142</v>
@@ -5536,13 +5536,13 @@
         <v>163054</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M21" s="7">
         <v>313</v>
@@ -5551,13 +5551,13 @@
         <v>357867</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5572,13 @@
         <v>48890</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>377</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>396</v>
+        <v>294</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -5587,13 +5587,13 @@
         <v>38054</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M22" s="7">
         <v>74</v>
@@ -5602,13 +5602,13 @@
         <v>86944</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,7 +5664,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5676,13 +5676,13 @@
         <v>3068</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>404</v>
+        <v>342</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>405</v>
+        <v>234</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -5691,13 +5691,13 @@
         <v>1024</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -5706,13 +5706,13 @@
         <v>4092</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>410</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5727,13 @@
         <v>20982</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5742,13 +5742,13 @@
         <v>6298</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -5757,13 +5757,13 @@
         <v>27280</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,13 +5778,13 @@
         <v>104054</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H26" s="7">
         <v>39</v>
@@ -5793,13 +5793,13 @@
         <v>43402</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M26" s="7">
         <v>136</v>
@@ -5808,13 +5808,13 @@
         <v>147456</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,13 +5829,13 @@
         <v>26171</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H27" s="7">
         <v>14</v>
@@ -5844,13 +5844,13 @@
         <v>17105</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>434</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>39</v>
@@ -5859,13 +5859,13 @@
         <v>43276</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>436</v>
+        <v>347</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,7 +5921,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -5933,13 +5933,13 @@
         <v>3015</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5948,13 +5948,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -5963,13 +5963,13 @@
         <v>3015</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +5984,13 @@
         <v>10251</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -5999,13 +5999,13 @@
         <v>6021</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -6014,13 +6014,13 @@
         <v>16272</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6035,13 @@
         <v>41760</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -6050,13 +6050,13 @@
         <v>8557</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>451</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="M31" s="7">
         <v>44</v>
@@ -6065,13 +6065,13 @@
         <v>50318</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6086,13 @@
         <v>20985</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -6101,13 +6101,13 @@
         <v>8454</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="M32" s="7">
         <v>26</v>
@@ -6116,13 +6116,13 @@
         <v>29439</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6190,13 @@
         <v>21878</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>472</v>
+        <v>126</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>90</v>
+        <v>466</v>
       </c>
       <c r="H34" s="7">
         <v>13</v>
@@ -6205,13 +6205,13 @@
         <v>13869</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="M34" s="7">
         <v>35</v>
@@ -6220,13 +6220,13 @@
         <v>35747</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>477</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6241,13 @@
         <v>212065</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H35" s="7">
         <v>132</v>
@@ -6256,13 +6256,13 @@
         <v>144034</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>275</v>
+        <v>477</v>
       </c>
       <c r="M35" s="7">
         <v>332</v>
@@ -6271,13 +6271,13 @@
         <v>356099</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>223</v>
+        <v>479</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>86</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,13 +6292,13 @@
         <v>830533</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H36" s="7">
         <v>564</v>
@@ -6307,13 +6307,13 @@
         <v>612768</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M36" s="7">
         <v>1337</v>
@@ -6322,13 +6322,13 @@
         <v>1443300</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,13 +6343,13 @@
         <v>284308</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>495</v>
+        <v>33</v>
       </c>
       <c r="H37" s="7">
         <v>185</v>
@@ -6358,13 +6358,13 @@
         <v>201502</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>496</v>
+        <v>327</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>498</v>
+        <v>101</v>
       </c>
       <c r="M37" s="7">
         <v>456</v>
@@ -6373,13 +6373,13 @@
         <v>485809</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>501</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,7 +6435,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -6457,7 +6457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0DB68E-B268-4D7C-917C-C0D672D43211}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8BF2BB-58FC-4480-8FAA-ECDFDA7A3823}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6474,7 +6474,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6581,13 +6581,13 @@
         <v>7217</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>503</v>
+        <v>54</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -6596,13 +6596,13 @@
         <v>5254</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -6611,13 +6611,13 @@
         <v>12472</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>272</v>
+        <v>501</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,13 +6632,13 @@
         <v>38415</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="H5" s="7">
         <v>35</v>
@@ -6647,13 +6647,13 @@
         <v>34061</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -6662,13 +6662,13 @@
         <v>72475</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6683,13 +6683,13 @@
         <v>55470</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="H6" s="7">
         <v>48</v>
@@ -6698,13 +6698,13 @@
         <v>47301</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="M6" s="7">
         <v>100</v>
@@ -6713,13 +6713,13 @@
         <v>102771</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6734,13 +6734,13 @@
         <v>38334</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -6749,13 +6749,13 @@
         <v>17826</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -6764,13 +6764,13 @@
         <v>56160</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,13 +6838,13 @@
         <v>4775</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -6853,13 +6853,13 @@
         <v>6756</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -6868,13 +6868,13 @@
         <v>11531</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>439</v>
+        <v>374</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,13 +6889,13 @@
         <v>62196</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>65</v>
+        <v>539</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -6904,13 +6904,13 @@
         <v>47197</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="M10" s="7">
         <v>106</v>
@@ -6919,13 +6919,13 @@
         <v>109393</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>495</v>
+        <v>543</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,13 +6940,13 @@
         <v>138081</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="H11" s="7">
         <v>118</v>
@@ -6955,13 +6955,13 @@
         <v>114274</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M11" s="7">
         <v>251</v>
@@ -6970,13 +6970,13 @@
         <v>252355</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,13 +6991,13 @@
         <v>53876</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>560</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>555</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H12" s="7">
         <v>44</v>
@@ -7006,13 +7006,13 @@
         <v>42890</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="M12" s="7">
         <v>95</v>
@@ -7021,13 +7021,13 @@
         <v>96766</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>298</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7083,7 +7083,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -7095,13 +7095,13 @@
         <v>9048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>567</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>563</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -7110,13 +7110,13 @@
         <v>4539</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>130</v>
+        <v>567</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -7125,13 +7125,13 @@
         <v>13587</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,13 +7146,13 @@
         <v>41562</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="H15" s="7">
         <v>36</v>
@@ -7161,13 +7161,13 @@
         <v>35236</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>576</v>
       </c>
       <c r="M15" s="7">
         <v>75</v>
@@ -7176,13 +7176,13 @@
         <v>76798</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,13 +7197,13 @@
         <v>146827</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>582</v>
       </c>
       <c r="H16" s="7">
         <v>133</v>
@@ -7212,13 +7212,13 @@
         <v>129605</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="M16" s="7">
         <v>271</v>
@@ -7227,13 +7227,13 @@
         <v>276432</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,13 +7248,13 @@
         <v>66554</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>589</v>
+        <v>191</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>591</v>
+        <v>296</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -7263,13 +7263,13 @@
         <v>50183</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="M17" s="7">
         <v>114</v>
@@ -7278,13 +7278,13 @@
         <v>116737</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,13 +7352,13 @@
         <v>7846</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -7367,13 +7367,13 @@
         <v>2036</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -7382,13 +7382,13 @@
         <v>9882</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>604</v>
+        <v>274</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,13 +7403,13 @@
         <v>53786</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -7418,13 +7418,13 @@
         <v>38842</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>609</v>
+        <v>333</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M20" s="7">
         <v>80</v>
@@ -7433,13 +7433,13 @@
         <v>92628</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>156</v>
+        <v>607</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7454,13 +7454,13 @@
         <v>161771</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H21" s="7">
         <v>139</v>
@@ -7469,13 +7469,13 @@
         <v>149721</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>614</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="M21" s="7">
         <v>284</v>
@@ -7484,13 +7484,13 @@
         <v>311492</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7505,13 +7505,13 @@
         <v>50300</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>200</v>
+        <v>619</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -7520,13 +7520,13 @@
         <v>38065</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>625</v>
       </c>
       <c r="M22" s="7">
         <v>78</v>
@@ -7535,13 +7535,13 @@
         <v>88364</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>628</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7597,7 +7597,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7609,13 +7609,13 @@
         <v>1041</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>629</v>
+        <v>530</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -7624,13 +7624,13 @@
         <v>4315</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>372</v>
+        <v>628</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -7639,13 +7639,13 @@
         <v>5355</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>633</v>
+        <v>566</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7660,13 +7660,13 @@
         <v>24142</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -7675,13 +7675,13 @@
         <v>23554</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -7690,13 +7690,13 @@
         <v>47696</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7711,13 +7711,13 @@
         <v>97821</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>645</v>
+        <v>610</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="H26" s="7">
         <v>49</v>
@@ -7726,13 +7726,13 @@
         <v>57055</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>289</v>
+        <v>643</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="M26" s="7">
         <v>135</v>
@@ -7741,13 +7741,13 @@
         <v>154875</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7762,13 +7762,13 @@
         <v>22667</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>505</v>
+        <v>649</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H27" s="7">
         <v>22</v>
@@ -7777,13 +7777,13 @@
         <v>26950</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="M27" s="7">
         <v>42</v>
@@ -7792,13 +7792,13 @@
         <v>49617</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7854,7 +7854,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -7866,13 +7866,13 @@
         <v>2990</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>599</v>
+        <v>657</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7881,13 +7881,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>662</v>
+        <v>239</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -7896,13 +7896,13 @@
         <v>2990</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7917,13 +7917,13 @@
         <v>9253</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -7932,13 +7932,13 @@
         <v>4193</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -7947,13 +7947,13 @@
         <v>13446</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>672</v>
+        <v>397</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>668</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>379</v>
+        <v>669</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7968,13 +7968,13 @@
         <v>49660</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>588</v>
+        <v>670</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H31" s="7">
         <v>21</v>
@@ -7983,13 +7983,13 @@
         <v>24137</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>675</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>677</v>
       </c>
       <c r="M31" s="7">
         <v>71</v>
@@ -7998,13 +7998,13 @@
         <v>73797</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>678</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8019,13 +8019,13 @@
         <v>19355</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>682</v>
+        <v>396</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -8034,13 +8034,13 @@
         <v>9711</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>685</v>
+        <v>116</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="M32" s="7">
         <v>29</v>
@@ -8049,13 +8049,13 @@
         <v>29067</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>566</v>
+        <v>684</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8123,13 +8123,13 @@
         <v>32917</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>509</v>
+        <v>686</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>403</v>
+        <v>687</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>631</v>
+        <v>688</v>
       </c>
       <c r="H34" s="7">
         <v>23</v>
@@ -8138,13 +8138,13 @@
         <v>22900</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>471</v>
+        <v>689</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M34" s="7">
         <v>55</v>
@@ -8156,10 +8156,10 @@
         <v>52</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>691</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8177,7 +8177,7 @@
         <v>692</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>395</v>
+        <v>590</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>693</v>
@@ -8189,13 +8189,13 @@
         <v>183082</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>695</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>696</v>
       </c>
       <c r="M35" s="7">
         <v>387</v>
@@ -8204,13 +8204,13 @@
         <v>412436</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>697</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8225,13 +8225,13 @@
         <v>649628</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>700</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>701</v>
       </c>
       <c r="H36" s="7">
         <v>508</v>
@@ -8240,13 +8240,13 @@
         <v>522094</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>703</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>704</v>
       </c>
       <c r="M36" s="7">
         <v>1112</v>
@@ -8255,13 +8255,13 @@
         <v>1171722</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>706</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,13 +8276,13 @@
         <v>251086</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>709</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>710</v>
       </c>
       <c r="H37" s="7">
         <v>176</v>
@@ -8291,13 +8291,13 @@
         <v>185625</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>711</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>712</v>
       </c>
       <c r="M37" s="7">
         <v>412</v>
@@ -8306,10 +8306,10 @@
         <v>436711</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>628</v>
+        <v>409</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>500</v>
+        <v>712</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>713</v>
@@ -8368,7 +8368,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24F-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24F-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{008790E6-FDD2-41DE-84FB-35FE754EC6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31A61AA8-C950-46FB-8D70-AE965BE84008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{89DD8D73-8FEA-465E-9C43-06167DAD4741}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{606496BC-295C-4103-B681-330882B4CF09}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="783">
   <si>
     <t>Población según si le gustaría dejar de fumar en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No lo sabe</t>
@@ -193,7 +193,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>2,69%</t>
@@ -301,7 +301,7 @@
     <t>23,34%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>4,42%</t>
@@ -412,7 +412,7 @@
     <t>17,95%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>3,16%</t>
@@ -523,7 +523,7 @@
     <t>20,04%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>7,47%</t>
@@ -634,543 +634,624 @@
     <t>26,55%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le gustaría dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le gustaría dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
     <t>9,18%</t>
   </si>
   <si>
@@ -1336,246 +1417,315 @@
     <t>25,13%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>Población según si le gustaría dejar de fumar en 2016 (Tasa respuesta: 29,93%)</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
   </si>
   <si>
     <t>29,72%</t>
   </si>
   <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>Población según si le gustaría dejar de fumar en 2016 (Tasa respuesta: 29,93%)</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
     <t>24,28%</t>
   </si>
   <si>
-    <t>36,02%</t>
-  </si>
-  <si>
     <t>39,78%</t>
   </si>
   <si>
@@ -1732,9 +1882,6 @@
     <t>1,57%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
     <t>2,07%</t>
   </si>
   <si>
@@ -1753,9 +1900,6 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>15,74%</t>
-  </si>
-  <si>
     <t>20,85%</t>
   </si>
   <si>
@@ -2008,103 +2152,166 @@
     <t>25,14%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
   </si>
   <si>
     <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
   </si>
   <si>
     <t>1,73%</t>
@@ -2591,8 +2798,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6FC2C3-3574-4794-9027-27819B4D2962}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF289D7-4536-47A7-9CB5-D6BE5B60C9FC}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3994,19 +4201,19 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>4639</v>
+        <v>1827</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -4015,28 +4222,28 @@
         <v>891</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>166</v>
       </c>
       <c r="L29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M29" s="7">
+        <v>3</v>
+      </c>
+      <c r="N29" s="7">
+        <v>2718</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="M29" s="7">
-        <v>6</v>
-      </c>
-      <c r="N29" s="7">
-        <v>5529</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,10 +4252,10 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" s="7">
-        <v>19155</v>
+        <v>14233</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>206</v>
@@ -4075,10 +4282,10 @@
         <v>210</v>
       </c>
       <c r="M30" s="7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N30" s="7">
-        <v>20191</v>
+        <v>15269</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>211</v>
@@ -4096,10 +4303,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D31" s="7">
-        <v>35347</v>
+        <v>27708</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>214</v>
@@ -4111,10 +4318,10 @@
         <v>216</v>
       </c>
       <c r="H31" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I31" s="7">
-        <v>6849</v>
+        <v>4658</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>217</v>
@@ -4126,10 +4333,10 @@
         <v>219</v>
       </c>
       <c r="M31" s="7">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N31" s="7">
-        <v>42196</v>
+        <v>32366</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>220</v>
@@ -4147,10 +4354,10 @@
         <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D32" s="7">
-        <v>16686</v>
+        <v>9405</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>223</v>
@@ -4162,25 +4369,25 @@
         <v>225</v>
       </c>
       <c r="H32" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>2445</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>227</v>
       </c>
       <c r="M32" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N32" s="7">
-        <v>19130</v>
+        <v>9405</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>228</v>
@@ -4198,10 +4405,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D33" s="7">
-        <v>75826</v>
+        <v>53173</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -4213,10 +4420,10 @@
         <v>50</v>
       </c>
       <c r="H33" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I33" s="7">
-        <v>11220</v>
+        <v>6585</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -4228,10 +4435,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="N33" s="7">
-        <v>87046</v>
+        <v>59758</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -4245,19 +4452,19 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>56056</v>
+        <v>2811</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>232</v>
@@ -4266,34 +4473,34 @@
         <v>233</v>
       </c>
       <c r="H34" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>47194</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>3</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2811</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="M34" s="7">
-        <v>101</v>
-      </c>
-      <c r="N34" s="7">
-        <v>103250</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,49 +4509,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>510</v>
+        <v>5</v>
       </c>
       <c r="D35" s="7">
-        <v>516578</v>
+        <v>4922</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M35" s="7">
+        <v>5</v>
+      </c>
+      <c r="N35" s="7">
+        <v>4922</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="H35" s="7">
-        <v>295</v>
-      </c>
-      <c r="I35" s="7">
-        <v>302954</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="M35" s="7">
-        <v>805</v>
-      </c>
-      <c r="N35" s="7">
-        <v>819533</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,49 +4560,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>524</v>
+        <v>7</v>
       </c>
       <c r="D36" s="7">
-        <v>539879</v>
+        <v>7640</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H36" s="7">
+        <v>2</v>
+      </c>
+      <c r="I36" s="7">
+        <v>2190</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M36" s="7">
+        <v>9</v>
+      </c>
+      <c r="N36" s="7">
+        <v>9830</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H36" s="7">
-        <v>353</v>
-      </c>
-      <c r="I36" s="7">
-        <v>359231</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M36" s="7">
-        <v>877</v>
-      </c>
-      <c r="N36" s="7">
-        <v>899111</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,49 +4611,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>259</v>
+        <v>8</v>
       </c>
       <c r="D37" s="7">
-        <v>270917</v>
+        <v>7280</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H37" s="7">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="I37" s="7">
-        <v>153950</v>
+        <v>2445</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>262</v>
+        <v>166</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="M37" s="7">
-        <v>409</v>
+        <v>10</v>
       </c>
       <c r="N37" s="7">
-        <v>424867</v>
+        <v>9725</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,63 +4662,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>23</v>
+      </c>
+      <c r="D38" s="7">
+        <v>22654</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>4</v>
+      </c>
+      <c r="I38" s="7">
+        <v>4635</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="7">
+        <v>27</v>
+      </c>
+      <c r="N38" s="7">
+        <v>27288</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>54</v>
+      </c>
+      <c r="D39" s="7">
+        <v>56056</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H39" s="7">
+        <v>47</v>
+      </c>
+      <c r="I39" s="7">
+        <v>47194</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M39" s="7">
+        <v>101</v>
+      </c>
+      <c r="N39" s="7">
+        <v>103250</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>510</v>
+      </c>
+      <c r="D40" s="7">
+        <v>516578</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H40" s="7">
+        <v>295</v>
+      </c>
+      <c r="I40" s="7">
+        <v>302954</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M40" s="7">
+        <v>805</v>
+      </c>
+      <c r="N40" s="7">
+        <v>819533</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>524</v>
+      </c>
+      <c r="D41" s="7">
+        <v>539879</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H41" s="7">
+        <v>353</v>
+      </c>
+      <c r="I41" s="7">
+        <v>359231</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M41" s="7">
+        <v>877</v>
+      </c>
+      <c r="N41" s="7">
+        <v>899111</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>259</v>
+      </c>
+      <c r="D42" s="7">
+        <v>270917</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H42" s="7">
+        <v>150</v>
+      </c>
+      <c r="I42" s="7">
+        <v>153950</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M42" s="7">
+        <v>409</v>
+      </c>
+      <c r="N42" s="7">
+        <v>424867</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1347</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>1383431</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>845</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>863330</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>2192</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>2246761</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>267</v>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4524,8 +4989,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7144659-3706-4CD7-B82F-77760978F7D9}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B2EE71-BB74-48E8-B667-4178AFFC50BC}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4541,7 +5006,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4651,10 +5116,10 @@
         <v>92</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4663,13 +5128,13 @@
         <v>2228</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4678,13 +5143,13 @@
         <v>7504</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,13 +5164,13 @@
         <v>38320</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>211</v>
+        <v>303</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -4714,13 +5179,13 @@
         <v>28081</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="M5" s="7">
         <v>64</v>
@@ -4729,13 +5194,13 @@
         <v>66401</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +5215,13 @@
         <v>73053</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="H6" s="7">
         <v>69</v>
@@ -4765,13 +5230,13 @@
         <v>71439</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="M6" s="7">
         <v>142</v>
@@ -4780,13 +5245,13 @@
         <v>144493</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +5266,13 @@
         <v>48496</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -4816,13 +5281,13 @@
         <v>45246</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="M7" s="7">
         <v>94</v>
@@ -4831,13 +5296,13 @@
         <v>93743</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,13 +5370,13 @@
         <v>5904</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -4920,13 +5385,13 @@
         <v>998</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>166</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -4935,13 +5400,13 @@
         <v>6902</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,13 +5421,13 @@
         <v>51235</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -4974,10 +5439,10 @@
         <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -4986,13 +5451,13 @@
         <v>88277</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +5472,13 @@
         <v>203637</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="H11" s="7">
         <v>166</v>
@@ -5022,13 +5487,13 @@
         <v>178197</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="M11" s="7">
         <v>360</v>
@@ -5037,13 +5502,13 @@
         <v>381833</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5523,13 @@
         <v>88389</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -5073,13 +5538,13 @@
         <v>32296</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="M12" s="7">
         <v>118</v>
@@ -5088,13 +5553,13 @@
         <v>120685</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,13 +5627,13 @@
         <v>4616</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5177,13 +5642,13 @@
         <v>3008</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -5192,13 +5657,13 @@
         <v>7624</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5678,13 @@
         <v>55199</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="H15" s="7">
         <v>31</v>
@@ -5228,13 +5693,13 @@
         <v>33845</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="M15" s="7">
         <v>85</v>
@@ -5243,13 +5708,13 @@
         <v>89044</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,13 +5729,13 @@
         <v>213215</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
         <v>140</v>
@@ -5279,13 +5744,13 @@
         <v>148119</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="M16" s="7">
         <v>342</v>
@@ -5294,13 +5759,13 @@
         <v>361334</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5780,13 @@
         <v>51377</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>122</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>57</v>
@@ -5330,13 +5795,13 @@
         <v>60346</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -5345,13 +5810,13 @@
         <v>111723</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,10 +5887,10 @@
         <v>166</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>370</v>
+        <v>226</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -5434,13 +5899,13 @@
         <v>6610</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -5449,13 +5914,13 @@
         <v>6610</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,13 +5935,13 @@
         <v>36079</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>201</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -5485,13 +5950,13 @@
         <v>32746</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
         <v>61</v>
@@ -5500,13 +5965,13 @@
         <v>68825</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,13 +5986,13 @@
         <v>194813</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="H21" s="7">
         <v>142</v>
@@ -5536,13 +6001,13 @@
         <v>163054</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="M21" s="7">
         <v>313</v>
@@ -5551,13 +6016,13 @@
         <v>357867</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +6037,13 @@
         <v>48890</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -5587,13 +6052,13 @@
         <v>38054</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="M22" s="7">
         <v>74</v>
@@ -5602,13 +6067,13 @@
         <v>86944</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +6141,13 @@
         <v>3068</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -5691,13 +6156,13 @@
         <v>1024</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -5706,10 +6171,10 @@
         <v>4092</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>11</v>
@@ -5727,13 +6192,13 @@
         <v>20982</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5742,13 +6207,13 @@
         <v>6298</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -5757,13 +6222,13 @@
         <v>27280</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,13 +6243,13 @@
         <v>104054</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>39</v>
@@ -5793,13 +6258,13 @@
         <v>43402</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>136</v>
@@ -5808,13 +6273,13 @@
         <v>147456</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,13 +6294,13 @@
         <v>26171</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="H27" s="7">
         <v>14</v>
@@ -5844,10 +6309,10 @@
         <v>17105</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>194</v>
@@ -5859,13 +6324,13 @@
         <v>43276</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,19 +6392,19 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>3015</v>
+        <v>1970</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>433</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5951,25 +6416,25 @@
         <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>370</v>
+        <v>226</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="M29" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29" s="7">
-        <v>3015</v>
+        <v>1971</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>437</v>
+        <v>166</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,49 +6443,49 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
+        <v>6</v>
+      </c>
+      <c r="D30" s="7">
+        <v>7224</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2997</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="M30" s="7">
         <v>9</v>
       </c>
-      <c r="D30" s="7">
-        <v>10251</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="H30" s="7">
-        <v>5</v>
-      </c>
-      <c r="I30" s="7">
-        <v>6021</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="M30" s="7">
-        <v>14</v>
-      </c>
       <c r="N30" s="7">
-        <v>16272</v>
+        <v>10221</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,49 +6494,49 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D31" s="7">
-        <v>41760</v>
+        <v>31845</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="H31" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I31" s="7">
-        <v>8557</v>
+        <v>7552</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="M31" s="7">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N31" s="7">
-        <v>50318</v>
+        <v>39398</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,19 +6545,19 @@
         <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D32" s="7">
-        <v>20985</v>
+        <v>10214</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -6101,28 +6566,28 @@
         <v>8454</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="M32" s="7">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N32" s="7">
-        <v>29439</v>
+        <v>18667</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,10 +6596,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D33" s="7">
-        <v>76012</v>
+        <v>51254</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -6146,10 +6611,10 @@
         <v>50</v>
       </c>
       <c r="H33" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I33" s="7">
-        <v>23031</v>
+        <v>19003</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -6161,10 +6626,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="N33" s="7">
-        <v>99044</v>
+        <v>70257</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -6178,55 +6643,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>21878</v>
+        <v>1045</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="H34" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>13869</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>467</v>
+        <v>166</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>468</v>
+        <v>226</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="M34" s="7">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="N34" s="7">
-        <v>35747</v>
+        <v>1045</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>471</v>
+        <v>166</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>165</v>
+        <v>495</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,49 +6700,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="D35" s="7">
-        <v>212065</v>
+        <v>3027</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="H35" s="7">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="I35" s="7">
-        <v>144034</v>
+        <v>3024</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>476</v>
+        <v>166</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>477</v>
+        <v>219</v>
       </c>
       <c r="M35" s="7">
-        <v>332</v>
+        <v>5</v>
       </c>
       <c r="N35" s="7">
-        <v>356099</v>
+        <v>6051</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,49 +6751,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>773</v>
+        <v>9</v>
       </c>
       <c r="D36" s="7">
-        <v>830533</v>
+        <v>9915</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>482</v>
+        <v>135</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="H36" s="7">
-        <v>564</v>
+        <v>1</v>
       </c>
       <c r="I36" s="7">
-        <v>612768</v>
+        <v>1005</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>485</v>
+        <v>166</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>486</v>
+        <v>219</v>
       </c>
       <c r="M36" s="7">
-        <v>1337</v>
+        <v>10</v>
       </c>
       <c r="N36" s="7">
-        <v>1443300</v>
+        <v>10920</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,49 +6802,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>271</v>
+        <v>10</v>
       </c>
       <c r="D37" s="7">
-        <v>284308</v>
+        <v>10772</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>33</v>
+        <v>511</v>
       </c>
       <c r="H37" s="7">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>201502</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>327</v>
+        <v>166</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>492</v>
+        <v>226</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>101</v>
+        <v>493</v>
       </c>
       <c r="M37" s="7">
-        <v>456</v>
+        <v>10</v>
       </c>
       <c r="N37" s="7">
-        <v>485809</v>
+        <v>10772</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>294</v>
+        <v>514</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6388,63 +6853,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>23</v>
+      </c>
+      <c r="D38" s="7">
+        <v>24758</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>3</v>
+      </c>
+      <c r="I38" s="7">
+        <v>4029</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="7">
+        <v>26</v>
+      </c>
+      <c r="N38" s="7">
+        <v>28787</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>22</v>
+      </c>
+      <c r="D39" s="7">
+        <v>21878</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="H39" s="7">
+        <v>13</v>
+      </c>
+      <c r="I39" s="7">
+        <v>13869</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="M39" s="7">
+        <v>35</v>
+      </c>
+      <c r="N39" s="7">
+        <v>35747</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>200</v>
+      </c>
+      <c r="D40" s="7">
+        <v>212065</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="H40" s="7">
+        <v>132</v>
+      </c>
+      <c r="I40" s="7">
+        <v>144034</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="M40" s="7">
+        <v>332</v>
+      </c>
+      <c r="N40" s="7">
+        <v>356099</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>773</v>
+      </c>
+      <c r="D41" s="7">
+        <v>830533</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="H41" s="7">
+        <v>564</v>
+      </c>
+      <c r="I41" s="7">
+        <v>612768</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="M41" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N41" s="7">
+        <v>1443301</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>271</v>
+      </c>
+      <c r="D42" s="7">
+        <v>284308</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="7">
+        <v>185</v>
+      </c>
+      <c r="I42" s="7">
+        <v>201502</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M42" s="7">
+        <v>456</v>
+      </c>
+      <c r="N42" s="7">
+        <v>485810</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1266</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>1348784</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>894</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>972173</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>2160</v>
       </c>
-      <c r="N38" s="7">
-        <v>2320956</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>267</v>
+      <c r="N43" s="7">
+        <v>2320957</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6457,8 +7180,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8BF2BB-58FC-4480-8FAA-ECDFDA7A3823}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2ED75B-B2DE-466B-83BD-8660033333BA}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6474,7 +7197,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>495</v>
+        <v>545</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6584,10 +7307,10 @@
         <v>54</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>496</v>
+        <v>546</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>497</v>
+        <v>547</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -6596,13 +7319,13 @@
         <v>5254</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>498</v>
+        <v>548</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>499</v>
+        <v>549</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -6611,13 +7334,13 @@
         <v>12472</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>501</v>
+        <v>551</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>502</v>
+        <v>552</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>503</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,13 +7355,13 @@
         <v>38415</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>504</v>
+        <v>554</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>505</v>
+        <v>555</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>506</v>
+        <v>556</v>
       </c>
       <c r="H5" s="7">
         <v>35</v>
@@ -6647,13 +7370,13 @@
         <v>34061</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>507</v>
+        <v>557</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>508</v>
+        <v>558</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>509</v>
+        <v>559</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -6662,13 +7385,13 @@
         <v>72475</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>462</v>
+        <v>560</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>510</v>
+        <v>561</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>511</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6683,13 +7406,13 @@
         <v>55470</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>512</v>
+        <v>562</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>513</v>
+        <v>563</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>514</v>
+        <v>564</v>
       </c>
       <c r="H6" s="7">
         <v>48</v>
@@ -6698,13 +7421,13 @@
         <v>47301</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>515</v>
+        <v>565</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>516</v>
+        <v>566</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>517</v>
+        <v>567</v>
       </c>
       <c r="M6" s="7">
         <v>100</v>
@@ -6713,13 +7436,13 @@
         <v>102771</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>518</v>
+        <v>568</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>520</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6734,13 +7457,13 @@
         <v>38334</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>521</v>
+        <v>571</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>522</v>
+        <v>572</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>523</v>
+        <v>573</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -6749,13 +7472,13 @@
         <v>17826</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>524</v>
+        <v>574</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>526</v>
+        <v>576</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -6764,13 +7487,13 @@
         <v>56160</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>527</v>
+        <v>577</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>528</v>
+        <v>578</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>529</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,13 +7561,13 @@
         <v>4775</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>530</v>
+        <v>580</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>531</v>
+        <v>581</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -6853,13 +7576,13 @@
         <v>6756</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>532</v>
+        <v>582</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>533</v>
+        <v>583</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -6868,13 +7591,13 @@
         <v>11531</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>535</v>
+        <v>585</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>536</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,13 +7612,13 @@
         <v>62196</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>537</v>
+        <v>587</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>538</v>
+        <v>588</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>539</v>
+        <v>589</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -6904,13 +7627,13 @@
         <v>47197</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>541</v>
+        <v>591</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>542</v>
+        <v>592</v>
       </c>
       <c r="M10" s="7">
         <v>106</v>
@@ -6919,13 +7642,13 @@
         <v>109393</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>543</v>
+        <v>593</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>544</v>
+        <v>594</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>545</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,13 +7663,13 @@
         <v>138081</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>546</v>
+        <v>596</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>547</v>
+        <v>597</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>548</v>
+        <v>598</v>
       </c>
       <c r="H11" s="7">
         <v>118</v>
@@ -6955,13 +7678,13 @@
         <v>114274</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>549</v>
+        <v>599</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>551</v>
+        <v>601</v>
       </c>
       <c r="M11" s="7">
         <v>251</v>
@@ -6970,13 +7693,13 @@
         <v>252355</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>552</v>
+        <v>602</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>553</v>
+        <v>603</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>554</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,10 +7717,10 @@
         <v>42</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>555</v>
+        <v>605</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>556</v>
+        <v>606</v>
       </c>
       <c r="H12" s="7">
         <v>44</v>
@@ -7006,13 +7729,13 @@
         <v>42890</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>557</v>
+        <v>607</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>558</v>
+        <v>608</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>559</v>
+        <v>609</v>
       </c>
       <c r="M12" s="7">
         <v>95</v>
@@ -7021,13 +7744,13 @@
         <v>96766</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>560</v>
+        <v>610</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>561</v>
+        <v>611</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>562</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7098,10 +7821,10 @@
         <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>563</v>
+        <v>613</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>564</v>
+        <v>242</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -7110,13 +7833,13 @@
         <v>4539</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>565</v>
+        <v>614</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>566</v>
+        <v>615</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>567</v>
+        <v>616</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -7125,13 +7848,13 @@
         <v>13587</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>568</v>
+        <v>617</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>569</v>
+        <v>618</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>570</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,13 +7869,13 @@
         <v>41562</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>571</v>
+        <v>228</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>130</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>572</v>
+        <v>620</v>
       </c>
       <c r="H15" s="7">
         <v>36</v>
@@ -7161,13 +7884,13 @@
         <v>35236</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>573</v>
+        <v>621</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>574</v>
+        <v>622</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>575</v>
+        <v>623</v>
       </c>
       <c r="M15" s="7">
         <v>75</v>
@@ -7176,13 +7899,13 @@
         <v>76798</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>576</v>
+        <v>624</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>577</v>
+        <v>625</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>578</v>
+        <v>626</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,13 +7920,13 @@
         <v>146827</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>579</v>
+        <v>627</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>580</v>
+        <v>628</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>581</v>
+        <v>629</v>
       </c>
       <c r="H16" s="7">
         <v>133</v>
@@ -7212,13 +7935,13 @@
         <v>129605</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>582</v>
+        <v>630</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>583</v>
+        <v>631</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>584</v>
+        <v>632</v>
       </c>
       <c r="M16" s="7">
         <v>271</v>
@@ -7227,13 +7950,13 @@
         <v>276432</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>585</v>
+        <v>633</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>586</v>
+        <v>634</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>587</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7251,10 +7974,10 @@
         <v>191</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>588</v>
+        <v>636</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -7263,13 +7986,13 @@
         <v>50183</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>589</v>
+        <v>637</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>590</v>
+        <v>638</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>591</v>
+        <v>639</v>
       </c>
       <c r="M17" s="7">
         <v>114</v>
@@ -7278,13 +8001,13 @@
         <v>116737</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>592</v>
+        <v>640</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>593</v>
+        <v>641</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>594</v>
+        <v>642</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,13 +8075,13 @@
         <v>7846</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>595</v>
+        <v>643</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>596</v>
+        <v>644</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>597</v>
+        <v>645</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -7367,13 +8090,13 @@
         <v>2036</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>598</v>
+        <v>646</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>166</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>599</v>
+        <v>647</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -7382,13 +8105,13 @@
         <v>9882</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>600</v>
+        <v>648</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>601</v>
+        <v>649</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,13 +8126,13 @@
         <v>53786</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>602</v>
+        <v>650</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>603</v>
+        <v>651</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>604</v>
+        <v>652</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -7418,13 +8141,13 @@
         <v>38842</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>605</v>
+        <v>653</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>606</v>
+        <v>654</v>
       </c>
       <c r="M20" s="7">
         <v>80</v>
@@ -7433,13 +8156,13 @@
         <v>92628</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>607</v>
+        <v>655</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>608</v>
+        <v>656</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>609</v>
+        <v>657</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7454,13 +8177,13 @@
         <v>161771</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>610</v>
+        <v>658</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>611</v>
+        <v>659</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>612</v>
+        <v>660</v>
       </c>
       <c r="H21" s="7">
         <v>139</v>
@@ -7469,13 +8192,13 @@
         <v>149721</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>613</v>
+        <v>661</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>614</v>
+        <v>662</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>615</v>
+        <v>663</v>
       </c>
       <c r="M21" s="7">
         <v>284</v>
@@ -7484,13 +8207,13 @@
         <v>311492</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>616</v>
+        <v>664</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>617</v>
+        <v>665</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>618</v>
+        <v>666</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7508,10 +8231,10 @@
         <v>189</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>619</v>
+        <v>667</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>620</v>
+        <v>668</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -7520,13 +8243,13 @@
         <v>38065</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>621</v>
+        <v>669</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>622</v>
+        <v>670</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>623</v>
+        <v>671</v>
       </c>
       <c r="M22" s="7">
         <v>78</v>
@@ -7535,13 +8258,13 @@
         <v>88364</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>624</v>
+        <v>672</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>625</v>
+        <v>673</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7609,13 +8332,13 @@
         <v>1041</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>530</v>
+        <v>580</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>626</v>
+        <v>674</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -7624,13 +8347,13 @@
         <v>4315</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>627</v>
+        <v>675</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>628</v>
+        <v>676</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>629</v>
+        <v>677</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -7642,10 +8365,10 @@
         <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>566</v>
+        <v>615</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>630</v>
+        <v>678</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7660,13 +8383,13 @@
         <v>24142</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>631</v>
+        <v>679</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>632</v>
+        <v>680</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>633</v>
+        <v>681</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -7675,13 +8398,13 @@
         <v>23554</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>634</v>
+        <v>682</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>635</v>
+        <v>683</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>636</v>
+        <v>684</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -7690,13 +8413,13 @@
         <v>47696</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>637</v>
+        <v>685</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>638</v>
+        <v>686</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>639</v>
+        <v>687</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7711,13 +8434,13 @@
         <v>97821</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>640</v>
+        <v>688</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>610</v>
+        <v>658</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>641</v>
+        <v>689</v>
       </c>
       <c r="H26" s="7">
         <v>49</v>
@@ -7726,13 +8449,13 @@
         <v>57055</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>642</v>
+        <v>690</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>643</v>
+        <v>691</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>644</v>
+        <v>692</v>
       </c>
       <c r="M26" s="7">
         <v>135</v>
@@ -7741,13 +8464,13 @@
         <v>154875</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>645</v>
+        <v>693</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>646</v>
+        <v>694</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>647</v>
+        <v>695</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7762,13 +8485,13 @@
         <v>22667</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>648</v>
+        <v>696</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>649</v>
+        <v>697</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>650</v>
+        <v>698</v>
       </c>
       <c r="H27" s="7">
         <v>22</v>
@@ -7777,13 +8500,13 @@
         <v>26950</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>639</v>
+        <v>687</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>651</v>
+        <v>699</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>652</v>
+        <v>700</v>
       </c>
       <c r="M27" s="7">
         <v>42</v>
@@ -7792,13 +8515,13 @@
         <v>49617</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>653</v>
+        <v>701</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>654</v>
+        <v>702</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>655</v>
+        <v>703</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7866,13 +8589,13 @@
         <v>2990</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>656</v>
+        <v>704</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>657</v>
+        <v>705</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>658</v>
+        <v>706</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7884,10 +8607,10 @@
         <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>370</v>
+        <v>226</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>239</v>
+        <v>707</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -7896,13 +8619,13 @@
         <v>2990</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>659</v>
+        <v>497</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>660</v>
+        <v>708</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>661</v>
+        <v>709</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7911,19 +8634,19 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D30" s="7">
-        <v>9253</v>
+        <v>6857</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>662</v>
+        <v>622</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>663</v>
+        <v>710</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>664</v>
+        <v>711</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -7932,28 +8655,28 @@
         <v>4193</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>665</v>
+        <v>712</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>666</v>
+        <v>713</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>667</v>
+        <v>714</v>
       </c>
       <c r="M30" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N30" s="7">
-        <v>13446</v>
+        <v>11050</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>397</v>
+        <v>526</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>668</v>
+        <v>715</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>669</v>
+        <v>716</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7962,49 +8685,49 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D31" s="7">
-        <v>49660</v>
+        <v>37233</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>670</v>
+        <v>717</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>671</v>
+        <v>718</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>672</v>
+        <v>719</v>
       </c>
       <c r="H31" s="7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I31" s="7">
-        <v>24137</v>
+        <v>17384</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>673</v>
+        <v>720</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>674</v>
+        <v>721</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>675</v>
+        <v>722</v>
       </c>
       <c r="M31" s="7">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="N31" s="7">
-        <v>73797</v>
+        <v>54618</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>676</v>
+        <v>723</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>677</v>
+        <v>724</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>678</v>
+        <v>725</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8013,49 +8736,49 @@
         <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D32" s="7">
-        <v>19355</v>
+        <v>11152</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>679</v>
+        <v>726</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>396</v>
+        <v>727</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>680</v>
+        <v>728</v>
       </c>
       <c r="H32" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I32" s="7">
-        <v>9711</v>
+        <v>8450</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>681</v>
+        <v>729</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>116</v>
+        <v>730</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>682</v>
+        <v>603</v>
       </c>
       <c r="M32" s="7">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N32" s="7">
-        <v>29067</v>
+        <v>19601</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>683</v>
+        <v>731</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>684</v>
+        <v>732</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>685</v>
+        <v>733</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8064,10 +8787,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D33" s="7">
-        <v>81259</v>
+        <v>58232</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -8079,10 +8802,10 @@
         <v>50</v>
       </c>
       <c r="H33" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I33" s="7">
-        <v>38041</v>
+        <v>30027</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -8094,10 +8817,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="N33" s="7">
-        <v>119300</v>
+        <v>88259</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -8111,55 +8834,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>32917</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>686</v>
+        <v>166</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>687</v>
+        <v>226</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>688</v>
+        <v>734</v>
       </c>
       <c r="H34" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>22900</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>659</v>
+        <v>166</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>689</v>
+        <v>226</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>690</v>
+        <v>735</v>
       </c>
       <c r="M34" s="7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="N34" s="7">
-        <v>55817</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>691</v>
+        <v>226</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>304</v>
+        <v>736</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8168,49 +8891,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="D35" s="7">
-        <v>229354</v>
+        <v>2396</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>692</v>
+        <v>737</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>693</v>
+        <v>738</v>
       </c>
       <c r="H35" s="7">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>183082</v>
+        <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>694</v>
+        <v>226</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>695</v>
+        <v>735</v>
       </c>
       <c r="M35" s="7">
-        <v>387</v>
+        <v>3</v>
       </c>
       <c r="N35" s="7">
-        <v>412436</v>
+        <v>2396</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>696</v>
+        <v>739</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>123</v>
+        <v>740</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>697</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8219,49 +8942,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>604</v>
+        <v>15</v>
       </c>
       <c r="D36" s="7">
-        <v>649628</v>
+        <v>12427</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>698</v>
+        <v>741</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>699</v>
+        <v>742</v>
       </c>
       <c r="G36" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="H36" s="7">
+        <v>5</v>
+      </c>
+      <c r="I36" s="7">
+        <v>6752</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="H36" s="7">
-        <v>508</v>
-      </c>
-      <c r="I36" s="7">
-        <v>522094</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>702</v>
-      </c>
       <c r="L36" s="7" t="s">
-        <v>703</v>
+        <v>219</v>
       </c>
       <c r="M36" s="7">
-        <v>1112</v>
+        <v>20</v>
       </c>
       <c r="N36" s="7">
-        <v>1171722</v>
+        <v>19179</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>704</v>
+        <v>745</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>705</v>
+        <v>746</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>706</v>
+        <v>747</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8270,49 +8993,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="D37" s="7">
-        <v>251086</v>
+        <v>8204</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>707</v>
+        <v>748</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>708</v>
+        <v>749</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>709</v>
+        <v>750</v>
       </c>
       <c r="H37" s="7">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="I37" s="7">
-        <v>185625</v>
+        <v>1262</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>557</v>
+        <v>228</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>710</v>
+        <v>166</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>711</v>
+        <v>751</v>
       </c>
       <c r="M37" s="7">
-        <v>412</v>
+        <v>11</v>
       </c>
       <c r="N37" s="7">
-        <v>436711</v>
+        <v>9466</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>409</v>
+        <v>355</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>712</v>
+        <v>752</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>713</v>
+        <v>753</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8321,63 +9044,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>28</v>
+      </c>
+      <c r="D38" s="7">
+        <v>23027</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>6</v>
+      </c>
+      <c r="I38" s="7">
+        <v>8014</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="7">
+        <v>34</v>
+      </c>
+      <c r="N38" s="7">
+        <v>31041</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>32</v>
+      </c>
+      <c r="D39" s="7">
+        <v>32917</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="H39" s="7">
+        <v>23</v>
+      </c>
+      <c r="I39" s="7">
+        <v>22900</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="M39" s="7">
+        <v>55</v>
+      </c>
+      <c r="N39" s="7">
+        <v>55817</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>209</v>
+      </c>
+      <c r="D40" s="7">
+        <v>229354</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="H40" s="7">
+        <v>178</v>
+      </c>
+      <c r="I40" s="7">
+        <v>183082</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="M40" s="7">
+        <v>387</v>
+      </c>
+      <c r="N40" s="7">
+        <v>412436</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>604</v>
+      </c>
+      <c r="D41" s="7">
+        <v>649628</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="H41" s="7">
+        <v>508</v>
+      </c>
+      <c r="I41" s="7">
+        <v>522094</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="M41" s="7">
+        <v>1112</v>
+      </c>
+      <c r="N41" s="7">
+        <v>1171722</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>236</v>
+      </c>
+      <c r="D42" s="7">
+        <v>251086</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="H42" s="7">
+        <v>176</v>
+      </c>
+      <c r="I42" s="7">
+        <v>185625</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="M42" s="7">
+        <v>412</v>
+      </c>
+      <c r="N42" s="7">
+        <v>436711</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1081</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>1162985</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>885</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>913701</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>1966</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>2076686</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>267</v>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
